--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-03.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-03.xlsx
@@ -4444,7 +4444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  To resist fate is to resist everything. Everything that contributes to the idea of “destiny.”
+    <t xml:space="preserve">[name="Kal'tsit"]  To resist fate is to resist everything. Everything that contributes to the idea of 'destiny.'
 </t>
   </si>
   <si>
@@ -4604,7 +4604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  We will take up his “Aegis” from now on. Not as the Aegis of the Infected, but as defenders of all the enslaved.
+    <t xml:space="preserve">[name="Shieldguard"]  We will take up his 'Aegis' from now on. Not as the Aegis of the Infected, but as defenders of all the enslaved.
 </t>
   </si>
   <si>
@@ -4816,27 +4816,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">“I have seen. Woe and tragedy.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“I have seen. Death and carnage.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“I have seen. Neglect and blasphemy.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“But someone once told me. It is all in our hands. If in the future, this is all that awaits us...”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“O, little King of Sarkaz. It is all in our hands. If this is fate...”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Then I reject it.”
+    <t xml:space="preserve">'I have seen. Woe and tragedy.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'I have seen. Death and carnage.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'I have seen. Neglect and blasphemy.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'But someone once told me. It is all in our hands. If in the future, this is all that awaits us...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'O, little King of Sarkaz. It is all in our hands. If this is fate...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Then I reject it.'
 </t>
   </si>
   <si>
@@ -4848,7 +4848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">“My Lord... Where will you go?”
+    <t xml:space="preserve">'My Lord... Where will you go?'
 </t>
   </si>
   <si>
@@ -4900,7 +4900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  This kind of “sublime betrayal” is a sort of release for those who deceive the world. It is an easy way to move things towards the best outcome.
+    <t xml:space="preserve">[name="Kal'tsit"]  This kind of 'sublime betrayal' is a sort of release for those who deceive the world. It is an easy way to move things towards the best outcome.
 </t>
   </si>
   <si>
@@ -5224,7 +5224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  But, his struggle against the storm was in vain. Even the “Aegis” have adopted his most radical ideas, and not his pragmatic approach.
+    <t xml:space="preserve">[name="Kal'tsit"]  But, his struggle against the storm was in vain. Even the 'Aegis' have adopted his most radical ideas, and not his pragmatic approach.
 </t>
   </si>
   <si>
@@ -5288,7 +5288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Do you want to distinguish between right and wrong, or do you want to understand the reason why everything happens? 
+    <t xml:space="preserve">[name="Kal'tsit"]  Do you want to distinguish between right and wrong, or do you want to understand the reason why everything happens? 
 </t>
   </si>
   <si>
@@ -5376,7 +5376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Chernobog Core City, Power Supply Sector 
+    <t xml:space="preserve">Chernobog Core City, Power Supply Sector 
 </t>
   </si>
   <si>
@@ -5460,7 +5460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  What do you go by now, W? 
+    <t xml:space="preserve">[name="Kal'tsit"]  What do you go by now, W? 
 </t>
   </si>
   <si>
@@ -5596,7 +5596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  There are too many creatures in this world that can be called “monsters.” Throw the word around too much and it’ll end up losing all meaning.
+    <t xml:space="preserve">[name="Kal'tsit"]  There are too many creatures in this world that can be called 'monsters.' Throw the word around too much and it’ll end up losing all meaning.
 </t>
   </si>
   <si>
@@ -5676,7 +5676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “We’re the same type of person.”
+    <t xml:space="preserve">[name="Kal'tsit"]  'We’re the same type of person.'
 </t>
   </si>
   <si>
@@ -5748,7 +5748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  First, thanks for saving the lives of Dr. {@nickname} and the rescue team with your deal. Your “deal” cost us thirteen of our operators.
+    <t xml:space="preserve">[name="Kal'tsit"]  First, thanks for saving the lives of Dr. {@nickname} and the rescue team with your deal. Your 'deal' cost us thirteen of our operators.
 </t>
   </si>
   <si>
@@ -5988,7 +5988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  There’s this phrase that I really like. Mm, it goes like this: “We’ll meet again someday, somewhere.”
+    <t xml:space="preserve">[name="Hoshiguma"]  There’s this phrase that I really like. Mm, it goes like this: 'We’ll meet again someday, somewhere.'
 </t>
   </si>
   <si>
@@ -6040,7 +6040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  “All sins must come to an end?”
+    <t xml:space="preserve">[name="Talulah"]  'All sins must come to an end?'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-03.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-03.xlsx
@@ -4160,11 +4160,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  You’re hurt?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Don’t worry. Just a scratch.
+    <t xml:space="preserve">[name="Swire"]  You're hurt?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Don't worry. Just a scratch.
 </t>
   </si>
   <si>
@@ -4172,7 +4172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Look, I’m fine...
+    <t xml:space="preserve">[name="Hoshiguma"]  Look, I'm fine...
 </t>
   </si>
   <si>
@@ -4184,23 +4184,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  ...The wound is deep, but not very wide. It’s as if... there’s a trace of Arts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Swire"]  ...Did old Ch’en do this to you? That blasted woman...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Hah... It’s fine. Girls of her age are bound to do stuff like this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Swire"]  ...Hoshiguma, I’m really scared. I’m scared that she’ll...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  That she’ll join Reunion?
+    <t xml:space="preserve">[name="Swire"]  ...The wound is deep, but not very wide. It's as if... there's a trace of Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Swire"]  ...Did old Ch'en do this to you? That blasted woman...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Hah... It's fine. Girls of her age are bound to do stuff like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Swire"]  ...Hoshiguma, I'm really scared. I'm scared that she'll...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That she'll join Reunion?
 </t>
   </si>
   <si>
@@ -4212,7 +4212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  Even though I don’t remember very clearly, I do know... that I really liked being her friend.
+    <t xml:space="preserve">[name="Swire"]  Even though I don't remember very clearly, I do know... that I really liked being her friend.
 </t>
   </si>
   <si>
@@ -4224,15 +4224,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  She beat up kids who were older than her. She was the only one who could get Ch’en to snap out of her funks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Swire"]  I’m afraid that...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  She won’t.
+    <t xml:space="preserve">[name="Swire"]  She beat up kids who were older than her. She was the only one who could get Ch'en to snap out of her funks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Swire"]  I'm afraid that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  She won't.
 </t>
   </si>
   <si>
@@ -4240,35 +4240,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I’m telling you, Ch’en’s heart is rarely on the same page as her mouth.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  But, she will always be Ch’en of Lungmen. No matter what she might say, all her dreams, all her goals, her entire life... has always been right here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Swire"]  So, why’d you try to stop her then?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  ...I was worried she’d get herself killed. Obviously.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Swire, you’ll have an important role in the L.G.D. after this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Swire"]  As if I could do that. I’m not her...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Oh, so you’re admitting she’s better than you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Swire"]  I just don’t think I’m cut out for the L.G.D.!
+    <t xml:space="preserve">[name="Hoshiguma"]  I'm telling you, Ch'en's heart is rarely on the same page as her mouth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  But, she will always be Ch'en of Lungmen. No matter what she might say, all her dreams, all her goals, her entire life... has always been right here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Swire"]  So, why'd you try to stop her then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...I was worried she'd get herself killed. Obviously.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Swire, you'll have an important role in the L.G.D. after this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Swire"]  As if I could do that. I'm not her...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Oh, so you're admitting she's better than you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Swire"]  I just don't think I'm cut out for the L.G.D.!
 </t>
   </si>
   <si>
@@ -4276,7 +4276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I’m not cut out for it. Neither is ol’ Ch’en. Or Nine.
+    <t xml:space="preserve">[name="Hoshiguma"]  I'm not cut out for it. Neither is ol' Ch'en. Or Nine.
 </t>
   </si>
   <si>
@@ -4284,11 +4284,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  You have to take responsibility. You’re the only one who can do it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I’m jaded now, and there’s a lot I don’t see. I just want this city to become a place that accepts everyone.
+    <t xml:space="preserve">[name="Hoshiguma"]  You have to take responsibility. You're the only one who can do it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I'm jaded now, and there's a lot I don't see. I just want this city to become a place that accepts everyone.
 </t>
   </si>
   <si>
@@ -4300,7 +4300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lin Yühsia"]  It’s been a long time, Miss Swire.
+    <t xml:space="preserve">[name="Lin Yühsia"]  It's been a long time, Miss Swire.
 </t>
   </si>
   <si>
@@ -4312,7 +4312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  What are you planning to do to her? Let me say this, if you’re planning to harm even a single hair on Missy’s head...
+    <t xml:space="preserve">[name="Hoshiguma"]  What are you planning to do to her? Let me say this, if you're planning to harm even a single hair on Missy's head...
 </t>
   </si>
   <si>
@@ -4332,7 +4332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  I don’t think there’s ever a time... where we don’t have a choice.
+    <t xml:space="preserve">[name="Swire"]  I don't think there's ever a time... where we don't have a choice.
 </t>
   </si>
   <si>
@@ -4352,19 +4352,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Daddy’s grey hair, Mommy’s needles♪
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  Crap, we’re exceeding the solubility threshold! Manually release the exhaust valve, now!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  That bout of volatility just caused a violent heat-absorbing effect. If we don’t increase emissions, the entire cabin’s going to be ruined!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  The rainclouds haven’t moved much either... At this rate, we’re in for some major snow.
+    <t xml:space="preserve">Daddy's grey hair, Mommy's needles♪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Crap, we're exceeding the solubility threshold! Manually release the exhaust valve, now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  That bout of volatility just caused a violent heat-absorbing effect. If we don't increase emissions, the entire cabin's going to be ruined!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  The rainclouds haven't moved much either... At this rate, we're in for some major snow.
 </t>
   </si>
   <si>
@@ -4376,7 +4376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">...’tis a reality that even time cannot shake~♪
+    <t xml:space="preserve">...'tis a reality that even time cannot shake~♪
 </t>
   </si>
   <si>
@@ -4396,11 +4396,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mephisto"]  Why was FrostNova so good at it? I really... can’t sing well...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  It’s snowing...
+    <t xml:space="preserve">[name="Mephisto"]  Why was FrostNova so good at it? I really... can't sing well...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  It's snowing...
 </t>
   </si>
   <si>
@@ -4412,7 +4412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  His crystallization rate is over sixty percent now. Even a Sarkaz shouldn’t be able to move.
+    <t xml:space="preserve">[name="Kal'tsit"]  His crystallization rate is over sixty percent now. Even a Sarkaz shouldn't be able to move.
 </t>
   </si>
   <si>
@@ -4428,15 +4428,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s all gone now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  The only thing that’s left is wrath.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  The unwillingness to accept FrostNova’s fate. The hostility towards Talulah’s actions. The endless longing for Ursus and Kazdel...
+    <t xml:space="preserve">[name="Amiya"]  It's all gone now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The only thing that's left is wrath.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The unwillingness to accept FrostNova's fate. The hostility towards Talulah's actions. The endless longing for Ursus and Kazdel...
 </t>
   </si>
   <si>
@@ -4448,7 +4448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Buldrokkas'tee’s wrath... scorched this entire world.
+    <t xml:space="preserve">[name="Kal'tsit"]  Buldrokkas'tee's wrath... scorched this entire world.
 </t>
   </si>
   <si>
@@ -4468,11 +4468,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  ...We will complete the Captain’s unfinished business.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  ...It’s enough.
+    <t xml:space="preserve">[name="Shieldguard"]  ...We will complete the Captain's unfinished business.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...It's enough.
 </t>
   </si>
   <si>
@@ -4480,7 +4480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  He didn’t want any of you to die. He wanted all of you to find another path.
+    <t xml:space="preserve">[name="Rosmontis"]  He didn't want any of you to die. He wanted all of you to find another path.
 </t>
   </si>
   <si>
@@ -4488,7 +4488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  Who said we’ll be the ones who die?
+    <t xml:space="preserve">[name="Shieldguard"]  Who said we'll be the ones who die?
 </t>
   </si>
   <si>
@@ -4496,7 +4496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  ...Cautus. You’re the source of all the ruin to come.
+    <t xml:space="preserve">[name="Shieldguard"]  ...Cautus. You're the source of all the ruin to come.
 </t>
   </si>
   <si>
@@ -4516,15 +4516,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Of course he wouldn’t just buy into FrostNova’s assessment!", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="He just happened to ignore his daughter’s opinion...", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="He didn’t go into any of this on blind faith.", values="1")]
+    <t xml:space="preserve">[Decision(options="Of course he wouldn't just buy into FrostNova's assessment!", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="He just happened to ignore his daughter's opinion...", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="He didn't go into any of this on blind faith.", values="1")]
 </t>
   </si>
   <si>
@@ -4536,7 +4536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  ...No, it’s not that we believe in the prophecy.
+    <t xml:space="preserve">[name="Shieldguard"]  ...No, it's not that we believe in the prophecy.
 </t>
   </si>
   <si>
@@ -4544,7 +4544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="...FrostNova’s candy was spicy.", values="1")]
+    <t xml:space="preserve">[Decision(options="...FrostNova's candy was spicy.", values="1")]
 </t>
   </si>
   <si>
@@ -4560,11 +4560,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="If you really want to take someone’s life...", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="At least be there to see it yourself!;Don’t blindly follow someone else!;You must follow your own will until the bitter end.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="If you really want to take someone's life...", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="At least be there to see it yourself!;Don't blindly follow someone else!;You must follow your own will until the bitter end.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -4576,11 +4576,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  Rhodes Island, we get some of what you’re saying. But we’ll never see eye-to-eye.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"]  We’ve followed the Captain our entire lives, but we we didn’t do it blindly.
+    <t xml:space="preserve">[name="Shieldguard"]  Rhodes Island, we get some of what you're saying. But we'll never see eye-to-eye.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  We've followed the Captain our entire lives, but we we didn't do it blindly.
 </t>
   </si>
   <si>
@@ -4600,7 +4600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  He had his regrets, but knew he couldn’t escape. He has set us free now, though. We belong only to the Captain and the ideals he fought for, not to Reunion.
+    <t xml:space="preserve">[name="Shieldguard"]  He had his regrets, but knew he couldn't escape. He has set us free now, though. We belong only to the Captain and the ideals he fought for, not to Reunion.
 </t>
   </si>
   <si>
@@ -4608,7 +4608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  We’ll keep an eye on you, Cautus. If you take even a single step onto the wrong path, we swear to hunt you down.
+    <t xml:space="preserve">[name="Shieldguard"]  We'll keep an eye on you, Cautus. If you take even a single step onto the wrong path, we swear to hunt you down.
 </t>
   </si>
   <si>
@@ -4624,11 +4624,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  We’re going to regroup. We need to tell the guerrillas the news.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"]  As for you... Continue to carry out your mission, if that’s what you want.
+    <t xml:space="preserve">[name="Shieldguard"]  We're going to regroup. We need to tell the guerrillas the news.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  As for you... Continue to carry out your mission, if that's what you want.
 </t>
   </si>
   <si>
@@ -4640,7 +4640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Amiya, don’t be too concerned about it.
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya, don't be too concerned about it.
 </t>
   </si>
   <si>
@@ -4668,7 +4668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I can’t tell if these ideas are just vague whispers... or seeds that can bloom into reality. I really can’t tell, but...
+    <t xml:space="preserve">[name="Amiya"]  I can't tell if these ideas are just vague whispers... or seeds that can bloom into reality. I really can't tell, but...
 </t>
   </si>
   <si>
@@ -4680,23 +4680,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I’ll kill her now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  Stop. How are you so sure that she’s our enemy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  She is Kashchey’s heir! She’ll poison us all, just like that old serpent!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  No, you stubborn old man... You’re wrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  Even if she’s bound to turn out like that in the end, we can’t kill her now.
+    <t xml:space="preserve">[name="Patriot"]  I'll kill her now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Stop. How are you so sure that she's our enemy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  She is Kashchey's heir! She'll poison us all, just like that old serpent!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  No, you stubborn old man... You're wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Even if she's bound to turn out like that in the end, we can't kill her now.
 </t>
   </si>
   <si>
@@ -4704,7 +4704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  Because she’s not Kashchey right now. Eh, who even is that? I can’t understand you. All I know is, she’s just Talulah.
+    <t xml:space="preserve">[name="FrostNova"]  Because she's not Kashchey right now. Eh, who even is that? I can't understand you. All I know is, she's just Talulah.
 </t>
   </si>
   <si>
@@ -4712,15 +4712,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  Twist? ...As if, old man. This whole idea of a pure warrior’s spirit? If you really had that, I never would’ve met you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  If you really had that, we wouldn’t be able to sit around a fire and have soup like we are now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  You’re... just sixteen.
+    <t xml:space="preserve">[name="FrostNova"]  Twist? ...As if, old man. This whole idea of a pure warrior's spirit? If you really had that, I never would've met you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  If you really had that, we wouldn't be able to sit around a fire and have soup like we are now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You're... just sixteen.
 </t>
   </si>
   <si>
@@ -4728,27 +4728,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  Always been cold. It’s better that way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I’ll listen to you this time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  No, Father. That’s not how it works.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  If you believe you’re right, then... no matter what happens, you should keep on believing that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  Because if something happens to Talulah, that’s between her and her people.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  But reality is just what’s in front of us. Right, Father?
+    <t xml:space="preserve">[name="FrostNova"]  Always been cold. It's better that way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I'll listen to you this time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  No, Father. That's not how it works.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  If you believe you're right, then... no matter what happens, you should keep on believing that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Because if something happens to Talulah, that's between her and her people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  But reality is just what's in front of us. Right, Father?
 </t>
   </si>
   <si>
@@ -4760,19 +4760,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  Let’s try walking her path and see what happens.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  ...You’ll be a great leader in the future.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  I don’t want to become a leader. I just want a comfortable life with my brothers and sisters, my uncles and aunts, and you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I’ll remember that.
+    <t xml:space="preserve">[name="FrostNova"]  Let's try walking her path and see what happens.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  ...You'll be a great leader in the future.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  I don't want to become a leader. I just want a comfortable life with my brothers and sisters, my uncles and aunts, and you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I'll remember that.
 </t>
   </si>
   <si>
@@ -4780,15 +4780,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I won’t forget.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Rosmontis... Dr. Kal’tsit... Doctor...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...He could’ve killed me... Mr. Buldrokkas'tee... could have killed me.
+    <t xml:space="preserve">[name="Patriot"]  I won't forget.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis... Dr. Kal'tsit... Doctor...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...He could've killed me... Mr. Buldrokkas'tee... could have killed me.
 </t>
   </si>
   <si>
@@ -4796,7 +4796,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  He didn’t do it. He stopped himself, at the end.
+    <t xml:space="preserve">[name="Amiya"]  He didn't do it. He stopped himself, at the end.
 </t>
   </si>
   <si>
@@ -4856,7 +4856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Doctor... I’ve read it all. I’ve seen everything.
+    <t xml:space="preserve">[name="Amiya"]  Doctor... I've read it all. I've seen everything.
 </t>
   </si>
   <si>
@@ -4880,7 +4880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  And just now... I’d say he made his final betrayal. He betrayed Reunion and the Infected he served, and stopped being a warrior of the Reunion Movement.
+    <t xml:space="preserve">[name="Kal'tsit"]  And just now... I'd say he made his final betrayal. He betrayed Reunion and the Infected he served, and stopped being a warrior of the Reunion Movement.
 </t>
   </si>
   <si>
@@ -4896,7 +4896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  But this... isn’t right, is it?
+    <t xml:space="preserve">[name="Rosmontis"]  But this... isn't right, is it?
 </t>
   </si>
   <si>
@@ -4916,11 +4916,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  ...Kazdel is Mr. Buldrokkas'tee’s home.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Even though he’s come so far, he’s always wanted to go back to Kazdel... It’s not that he didn’t want to go back home, but that he couldn’t. He had to pay the price first... for his betrayal.
+    <t xml:space="preserve">[name="Amiya"]  ...Kazdel is Mr. Buldrokkas'tee's home.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Even though he's come so far, he's always wanted to go back to Kazdel... It's not that he didn't want to go back home, but that he couldn't. He had to pay the price first... for his betrayal.
 </t>
   </si>
   <si>
@@ -4948,7 +4948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Ten years, twenty years... I’d be able to understand. But... too much time had passed. After facing all those regrets for so many years, too much time had passed.
+    <t xml:space="preserve">[name="Amiya"]  Ten years, twenty years... I'd be able to understand. But... too much time had passed. After facing all those regrets for so many years, too much time had passed.
 </t>
   </si>
   <si>
@@ -4956,7 +4956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  He could’ve taken my life, but he stopped at the end.
+    <t xml:space="preserve">[name="Amiya"]  He could've taken my life, but he stopped at the end.
 </t>
   </si>
   <si>
@@ -5004,11 +5004,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I’ll be with you, Amiya. Always.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even if you can save many people, you’ll cause immense suffering.
+    <t xml:space="preserve">[name="Rosmontis"]  I'll be with you, Amiya. Always.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if you can save many people, you'll cause immense suffering.
 </t>
   </si>
   <si>
@@ -5032,7 +5032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary"]  Why is one of Patriot’s men over here? This isn’t your patrol area.
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  Why is one of Patriot's men over here? This isn't your patrol area.
 </t>
   </si>
   <si>
@@ -5044,7 +5044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary"]  I’ll let it slide this time. A little warning, don’t stick your nose where it doesn’t belong next time.
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  I'll let it slide this time. A little warning, don't stick your nose where it doesn't belong next time.
 </t>
   </si>
   <si>
@@ -5064,7 +5064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary"]  That’s some big news.
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  That's some big news.
 </t>
   </si>
   <si>
@@ -5084,15 +5084,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary"]  You’re picking a fight with the core city?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  What’s wrong with that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Even Patriot is dead. You bastards... I won’t tolerate you any longer!
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  You're picking a fight with the core city?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  What's wrong with that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Even Patriot is dead. You bastards... I won't tolerate you any longer!
 </t>
   </si>
   <si>
@@ -5100,11 +5100,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Guerrillas! If there’s anything I can do to help... tell me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  First, we’re going to throw everyone who would toy with the lives of the Infected... right off these city walls!
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Guerrillas! If there's anything I can do to help... tell me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  First, we're going to throw everyone who would toy with the lives of the Infected... right off these city walls!
 </t>
   </si>
   <si>
@@ -5124,7 +5124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Just as if Talulah was unable to engineer Patriot’s death.
+    <t xml:space="preserve">[name="Kal'tsit"]  Just as if Talulah was unable to engineer Patriot's death.
 </t>
   </si>
   <si>
@@ -5140,11 +5140,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  Talulah orchestrated this conspiracy against Patriot! ...She’s an agent of Ursus!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Member"]  Who’d believe your nonsense?!
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Talulah orchestrated this conspiracy against Patriot! ...She's an agent of Ursus!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  Who'd believe your nonsense?!
 </t>
   </si>
   <si>
@@ -5164,11 +5164,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  Stop! Don’t fight us, if you value your lives. Otherwise, we’ll destroy you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Guerrilla Fighter"]  We are the Aegis of the Infected, and we’ll battle every last enemy for our peoples! Even if we have to stand against Talulah!
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Stop! Don't fight us, if you value your lives. Otherwise, we'll destroy you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  We are the Aegis of the Infected, and we'll battle every last enemy for our peoples! Even if we have to stand against Talulah!
 </t>
   </si>
   <si>
@@ -5188,7 +5188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Us mercs have our own priorities. We don’t care about Talulah’s plots. Do your best, and live on.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Us mercs have our own priorities. We don't care about Talulah's plots. Do your best, and live on.
 </t>
   </si>
   <si>
@@ -5204,7 +5204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  For all our comrades who’ve been betrayed by Talulah! For Faust!
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  For all our comrades who've been betrayed by Talulah! For Faust!
 </t>
   </si>
   <si>
@@ -5212,7 +5212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Are you sure it wasn’t an outsider that killed him? I saw someone else kill him, not Talulah!
+    <t xml:space="preserve">Are you sure it wasn't an outsider that killed him? I saw someone else kill him, not Talulah!
 </t>
   </si>
   <si>
@@ -5240,7 +5240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  No, not yet. Not like this. I haven’t seen the target yet. No...
+    <t xml:space="preserve">[name="Rosmontis"]  No, not yet. Not like this. I haven't seen the target yet. No...
 </t>
   </si>
   <si>
@@ -5304,11 +5304,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Kal’tsit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m listening.
+    <t xml:space="preserve">[name="Rosmontis"]  Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm listening.
 </t>
   </si>
   <si>
@@ -5316,19 +5316,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Dr. {@nickname}. We’ll split up for the next part.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Rosmontis and I will go to the control tower. Dr. Kal’tsit will take you to the generator area. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I won’t see you for a while?", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s just a few hours, right?
+    <t xml:space="preserve">[name="Amiya"]  Dr. {@nickname}. We'll split up for the next part.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis and I will go to the control tower. Dr. Kal'tsit will take you to the generator area. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I won't see you for a while?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It's just a few hours, right?
 </t>
   </si>
   <si>
@@ -5336,7 +5336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Even if I’m not at your side, I’ll always know that Dr. {@nickname} is out there... fighting together with me.
+    <t xml:space="preserve">[name="Amiya"]  Even if I'm not at your side, I'll always know that Dr. {@nickname} is out there... fighting together with me.
 </t>
   </si>
   <si>
@@ -5344,7 +5344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I’m pretty happy with that.
+    <t xml:space="preserve">[name="Amiya"]  I'm pretty happy with that.
 </t>
   </si>
   <si>
@@ -5356,11 +5356,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Madame Ch’en may already be near the command tower. She’s always been quick, so we’ll have to pick up our pace.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Doctor... Promise me that you’ll stay safe.
+    <t xml:space="preserve">[name="Amiya"]  Madame Ch'en may already be near the command tower. She's always been quick, so we'll have to pick up our pace.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Doctor... Promise me that you'll stay safe.
 </t>
   </si>
   <si>
@@ -5380,27 +5380,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Why’d you pick me for your team?", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Our decapitation strike team will be attacked by Reunion from all directions as they approach the control tower. I can’t just drop you off in a battlefield like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  When we were fighting the guerrillas, we could retreat and buy ourselves time to regroup. That won’t be possible for their team. They won’t even have an opening to catch their breaths.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  This battle has a clear objective, and Amiya and Rosmontis’s team can no longer afford any distractions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’ll be safe with me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I don’t feel safe around you.;......;You’re not staying with Amiya?", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Why'd you pick me for your team?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Our decapitation strike team will be attacked by Reunion from all directions as they approach the control tower. I can't just drop you off in a battlefield like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  When we were fighting the guerrillas, we could retreat and buy ourselves time to regroup. That won't be possible for their team. They won't even have an opening to catch their breaths.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  This battle has a clear objective, and Amiya and Rosmontis's team can no longer afford any distractions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You'll be safe with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I don't feel safe around you.;......;You're not staying with Amiya?", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -5428,7 +5428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...If you don’t want to, or if you’re feeling claustrophobic, I won’t stop you.
+    <t xml:space="preserve">[name="Kal'tsit"]  ...If you don't want to, or if you're feeling claustrophobic, I won't stop you.
 </t>
   </si>
   <si>
@@ -5436,11 +5436,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Where am I? How’d I blast my way down here... Is this it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Huh? You’re...
+    <t xml:space="preserve">[name="W"]  Where am I? How'd I blast my way down here... Is this it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Huh? You're...
 </t>
   </si>
   <si>
@@ -5452,11 +5452,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  ...What an unexpected reunion, Kal’tsit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...You’re gravely wounded.
+    <t xml:space="preserve">[name="W"]  ...What an unexpected reunion, Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...You're gravely wounded.
 </t>
   </si>
   <si>
@@ -5464,15 +5464,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Still W. Didn’t have time to change it yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Hold up, why are you casually milling around a place like this? Don’t tell me...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  The old man’s gone, huh?
+    <t xml:space="preserve">[name="W"]  Still W. Didn't have time to change it yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Hold up, why are you casually milling around a place like this? Don't tell me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  The old man's gone, huh?
 </t>
   </si>
   <si>
@@ -5484,7 +5484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  But... then again, he wasn’t going to survive this. He never backs down, and never lets anyone through.
+    <t xml:space="preserve">[name="W"]  But... then again, he wasn't going to survive this. He never backs down, and never lets anyone through.
 </t>
   </si>
   <si>
@@ -5500,11 +5500,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Guess today... was that idealist’s last.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="He died a glorious death!;You don’t understand anything.;Are you serious?", values="1;2;3")]
+    <t xml:space="preserve">[name="W"]  Guess today... was that idealist's last.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="He died a glorious death!;You don't understand anything.;Are you serious?", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -5524,7 +5524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’re asking me? You kidding? How do you have the nerve to stand there all calm like nothing ever happened?
+    <t xml:space="preserve">[name="W"]  You're asking me? You kidding? How do you have the nerve to stand there all calm like nothing ever happened?
 </t>
   </si>
   <si>
@@ -5532,11 +5532,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Though she directs her words at Dr. Kal’tsit, her eyes are fixed on me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Kal’tsit, you’re working with Dr. {@nickname}?
+    <t xml:space="preserve">Though she directs her words at Dr. Kal'tsit, her eyes are fixed on me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Kal'tsit, you're working with Dr. {@nickname}?
 </t>
   </si>
   <si>
@@ -5548,7 +5548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Of course, assuming you’re not like this bastard here pretending you don’t remember anything. But if that’s true, guess it doesn’t matter...
+    <t xml:space="preserve">[name="W"]  Of course, assuming you're not like this bastard here pretending you don't remember anything. But if that's true, guess it doesn't matter...
 </t>
   </si>
   <si>
@@ -5556,19 +5556,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Well shit, either I’m the crazy one, or you are. But even if I am crazy, that doesn’t make you any less of a loon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’re still clear-headed, W. Let’s save the small talk for some other time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Don’t wanna. What even happened? Just looking at you makes me want to puke.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But even if I’m trying not to throw up, this is just too funny.
+    <t xml:space="preserve">[name="W"]  Well shit, either I'm the crazy one, or you are. But even if I am crazy, that doesn't make you any less of a loon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You're still clear-headed, W. Let's save the small talk for some other time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Don't wanna. What even happened? Just looking at you makes me want to puke.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But even if I'm trying not to throw up, this is just too funny.
 </t>
   </si>
   <si>
@@ -5576,19 +5576,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Can’t prove there are any memories left in this one’s head. We’re just working together for the time being.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  This so-called amnesia... How are you so sure that it’s not all an elaborate act?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  It might have everyone fooled. Yes, everyone. You’re fooled too, whether or not you want to admit it... That’s the scorecard I got.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Kal'tsit, you’re a monster, aren’t you? A monster so smart you got a big, bright, glowy brain.
+    <t xml:space="preserve">[name="Kal'tsit"]  Can't prove there are any memories left in this one's head. We're just working together for the time being.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  This so-called amnesia... How are you so sure that it's not all an elaborate act?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  It might have everyone fooled. Yes, everyone. You're fooled too, whether or not you want to admit it... That's the scorecard I got.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Kal'tsit, you're a monster, aren't you? A monster so smart you got a big, bright, glowy brain.
 </t>
   </si>
   <si>
@@ -5596,11 +5596,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  There are too many creatures in this world that can be called 'monsters.' Throw the word around too much and it’ll end up losing all meaning.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Or, you’ve just gone mad. That’s a whole different matter.
+    <t xml:space="preserve">[name="Kal'tsit"]  There are too many creatures in this world that can be called 'monsters.' Throw the word around too much and it'll end up losing all meaning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Or, you've just gone mad. That's a whole different matter.
 </t>
   </si>
   <si>
@@ -5608,11 +5608,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  There’s no place for you to cut in here, friend. When I finish with her, it’ll be time for the two of us to have a nice, long chat.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  There’s no point taking things out on you. Either you have amnesia, or you’re just pretending to have amnesia...
+    <t xml:space="preserve">[name="W"]  There's no place for you to cut in here, friend. When I finish with her, it'll be time for the two of us to have a nice, long chat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  There's no point taking things out on you. Either you have amnesia, or you're just pretending to have amnesia...
 </t>
   </si>
   <si>
@@ -5624,7 +5624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Back then, there was only one person who entered the Speaker’s Office and knew Theresa’s whereabouts. Kal'tsit, you know what that means, don’t you?
+    <t xml:space="preserve">[name="W"]  Back then, there was only one person who entered the Speaker's Office and knew Theresa's whereabouts. Kal'tsit, you know what that means, don't you?
 </t>
   </si>
   <si>
@@ -5636,31 +5636,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  So what’s the deal? What are you doing now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Oh, I get it. You’re trying to make another exchange. Tit-for-tat.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But it’s Theresa on the other end!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Those who don’t know the truth shouldn’t let conjecture affect their emotions, W.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I have just a single conjecture: You aren’t human. Like I said before, if you’ll bargain Theresa’s death with a murderer... you’re just a monster.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You’re not human, Kal'tsit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I need to know the truth. And before I do, that thing next to you is a murderer; and I’ll never show mercy to a murderer.
+    <t xml:space="preserve">[name="W"]  So what's the deal? What are you doing now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Oh, I get it. You're trying to make another exchange. Tit-for-tat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But it's Theresa on the other end!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Those who don't know the truth shouldn't let conjecture affect their emotions, W.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I have just a single conjecture: You aren't human. Like I said before, if you'll bargain Theresa's death with a murderer... you're just a monster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You're not human, Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I need to know the truth. And before I do, that thing next to you is a murderer; and I'll never show mercy to a murderer.
 </t>
   </si>
   <si>
@@ -5668,7 +5668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’re bursting with motherly love, huh.
+    <t xml:space="preserve">[name="W"]  You're bursting with motherly love, huh.
 </t>
   </si>
   <si>
@@ -5676,11 +5676,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  'We’re the same type of person.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I don’t know where you heard that before, you should pretend you never did. You and I are not the same type of creature at all.
+    <t xml:space="preserve">[name="Kal'tsit"]  'We're the same type of person.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I don't know where you heard that before, you should pretend you never did. You and I are not the same type of creature at all.
 </t>
   </si>
   <si>
@@ -5688,19 +5688,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  For example, you also want to put an end to Talulah’s atrocities, correct?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  ...That’s true. She’s really pissed me off.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  So, I need to get my merc back from her. That piece of shit only knows how to squander her people. Such a spendthrift. I’m worried she’ll blow all our savings and leave me penniless.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Right, so let’s deal with the Reunion problem first.
+    <t xml:space="preserve">[name="Kal'tsit"]  For example, you also want to put an end to Talulah's atrocities, correct?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  ...That's true. She's really pissed me off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  So, I need to get my merc back from her. That piece of shit only knows how to squander her people. Such a spendthrift. I'm worried she'll blow all our savings and leave me penniless.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Right, so let's deal with the Reunion problem first.
 </t>
   </si>
   <si>
@@ -5724,15 +5724,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’re only third on the list?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I’m only in third place?", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Hah. That’s because I have something to ask you first, Dr. {@nickname}.
+    <t xml:space="preserve">[name="Kal'tsit"]  You're only third on the list?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I'm only in third place?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Hah. That's because I have something to ask you first, Dr. {@nickname}.
 </t>
   </si>
   <si>
@@ -5752,7 +5752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Balancing these two things, I’m willing to give you a lift, for old time’s sake. I’ll take you to the command tower.
+    <t xml:space="preserve">[name="Kal'tsit"]  Balancing these two things, I'm willing to give you a lift, for old time's sake. I'll take you to the command tower.
 </t>
   </si>
   <si>
@@ -5760,7 +5760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’ve always found you disgusting. I’ll have to rearrange your face a little first, see which one of us comes out on top...
+    <t xml:space="preserve">[name="W"]  I've always found you disgusting. I'll have to rearrange your face a little first, see which one of us comes out on top...
 </t>
   </si>
   <si>
@@ -5780,23 +5780,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I don’t have time to play with her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Mon3tr, blast through the ventilation pipes, the walls, and the base’s outer and middle protective layers along with her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You old hag!! N-n-n-n-next time, I swear I’m giving you a slow and painful d————
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m looking forward to it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I’m surprised you let her finish her first sentence.", values="1")]
+    <t xml:space="preserve">[name="Kal'tsit"]  I don't have time to play with her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Mon3tr, blast through the ventilation pipes, the walls, and the base's outer and middle protective layers along with her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You old hag!! N-n-n-n-next time, I swear I'm giving you a slow and painful d————
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm looking forward to it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I'm surprised you let her finish her first sentence.", values="1")]
 </t>
   </si>
   <si>
@@ -5804,11 +5804,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Why don’t you explain it to me then?", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s not time yet.
+    <t xml:space="preserve">[Decision(options="Why don't you explain it to me then?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It's not time yet.
 </t>
   </si>
   <si>
@@ -5860,43 +5860,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...What’s going on? Dark clouds? It’s snowing?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  But, it’s also covered the sun for me. This’ll make my next step a lot easier.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Ugh... I can’t afford to take any more hits.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Tch... Are you scared of shedding a little blood, Ch'en Hui-chieh? What happened to your determination?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  There seems to be infighting among Reunion’s ranks. This is the best time for me to move.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Are my hands trembling because I’m finally going to see you again?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...I must do what is right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  It doesn’t matter what you are now, whether or not you’re the same Talulah I knew.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Talulah... we have a date.
+    <t xml:space="preserve">[name="Ch'en"]  ...What's going on? Dark clouds? It's snowing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  But, it's also covered the sun for me. This'll make my next step a lot easier.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Ugh... I can't afford to take any more hits.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Tch... Are you scared of shedding a little blood, Ch'en Hui-chieh? What happened to your determination?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  There seems to be infighting among Reunion's ranks. This is the best time for me to move.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Are my hands trembling because I'm finally going to see you again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...I must do what is right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  It doesn't matter what you are now, whether or not you're the same Talulah I knew.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Talulah... we have a date.
 </t>
   </si>
   <si>
@@ -5908,7 +5908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lin Yühsia"]  You’ve never spoken to me about that.
+    <t xml:space="preserve">[name="Lin Yühsia"]  You've never spoken to me about that.
 </t>
   </si>
   <si>
@@ -5924,7 +5924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Princess, let’s not embarrass Missy over here.
+    <t xml:space="preserve">[name="Hoshiguma"]  Princess, let's not embarrass Missy over here.
 </t>
   </si>
   <si>
@@ -5932,15 +5932,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  ...Let’s drop that title, Princess.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lin Yühsia"]  Madame Oni, the Lin family will never forget all you’ve done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lin Yühsia"]  But right now, I don’t know if there will be an opportunity to reward you for it.
+    <t xml:space="preserve">[name="Hoshiguma"]  ...Let's drop that title, Princess.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lin Yühsia"]  Madame Oni, the Lin family will never forget all you've done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lin Yühsia"]  But right now, I don't know if there will be an opportunity to reward you for it.
 </t>
   </si>
   <si>
@@ -5948,11 +5948,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  She... I know she’ll succeed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Swire"]  Ah Ch’en...
+    <t xml:space="preserve">[name="Swire"]  She... I know she'll succeed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Swire"]  Ah Ch'en...
 </t>
   </si>
   <si>
@@ -5960,7 +5960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lin Yühsia"]  Look at you, where’d all your willpower go?
+    <t xml:space="preserve">[name="Lin Yühsia"]  Look at you, where'd all your willpower go?
 </t>
   </si>
   <si>
@@ -5968,7 +5968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Now now, Missy, there’s no need to cry.
+    <t xml:space="preserve">[name="Hoshiguma"]  Now now, Missy, there's no need to cry.
 </t>
   </si>
   <si>
@@ -5976,19 +5976,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Don’t worry. Everything is going to be fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Swire"]  But... this is the last time we’ll see each other. I’m not ready yet... What if... I never see that smelly dragon again?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  That won’t happen, Missy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  There’s this phrase that I really like. Mm, it goes like this: 'We’ll meet again someday, somewhere.'
+    <t xml:space="preserve">[name="Hoshiguma"]  Don't worry. Everything is going to be fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Swire"]  But... this is the last time we'll see each other. I'm not ready yet... What if... I never see that smelly dragon again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That won't happen, Missy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  There's this phrase that I really like. Mm, it goes like this: 'We'll meet again someday, somewhere.'
 </t>
   </si>
   <si>
@@ -6000,11 +6000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  What’s going on? Where are these tears coming from?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s as if... someone just told me about a death.
+    <t xml:space="preserve">[name="Talulah"]  What's going on? Where are these tears coming from?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It's as if... someone just told me about a death.
 </t>
   </si>
   <si>
@@ -6060,11 +6060,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rat King"]  Funny, isn’t it? Still haven’t kicked this old habit after all these years.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Do you know what I’m going to do, Kojui?
+    <t xml:space="preserve">[name="Rat King"]  Funny, isn't it? Still haven't kicked this old habit after all these years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Do you know what I'm going to do, Kojui?
 </t>
   </si>
   <si>
@@ -6076,7 +6076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Kojui, you’re not out here on a stroll. Even if you were, you shouldn’t waste my time.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Kojui, you're not out here on a stroll. Even if you were, you shouldn't waste my time.
 </t>
   </si>
   <si>
@@ -6092,19 +6092,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I can’t. I won’t promise you anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rat King"]  So be it. You’re not going anywhere today.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  ...Don’t think too highly of yourself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rat King"]  That’s what I should be saying to you. Wei Yenwu, you’ve been up in that tower of yours too long, it’s bad for your character. Come down and let out some of that hot air - it’s good for you.
+    <t xml:space="preserve">[name="Wei Yenwu"]  I can't. I won't promise you anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  So be it. You're not going anywhere today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Don't think too highly of yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  That's what I should be saying to you. Wei Yenwu, you've been up in that tower of yours too long, it's bad for your character. Come down and let out some of that hot air - it's good for you.
 </t>
   </si>
   <si>
@@ -6116,7 +6116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s hard to imagine.Even the old Patriot can die.
+    <t xml:space="preserve">It's hard to imagine.Even the old Patriot can die.
 </t>
   </si>
   <si>
@@ -6124,11 +6124,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">What’s really funny is now that he’s dead, you climbed all the way to the top of Reunion, second only to the Leader.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ah, you’ve really outdone yourself. You should give yourself a pat on the back, W.
+    <t xml:space="preserve">What's really funny is now that he's dead, you climbed all the way to the top of Reunion, second only to the Leader.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah, you've really outdone yourself. You should give yourself a pat on the back, W.
 </t>
   </si>
   <si>
@@ -6156,7 +6156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Wait, doesn’t that sound a bit like you, W?
+    <t xml:space="preserve">Wait, doesn't that sound a bit like you, W?
 </t>
   </si>
   <si>
@@ -6164,15 +6164,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">W, don’t lie to yourself. You’re practically the same.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nah, I never lie to myself. I’ll never become like Patriot, because I can’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I just can’t.
+    <t xml:space="preserve">W, don't lie to yourself. You're practically the same.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nah, I never lie to myself. I'll never become like Patriot, because I can't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just can't.
 </t>
   </si>
   <si>
@@ -6184,7 +6184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">What doesn’t kill you, puts you one step closer to death.
+    <t xml:space="preserve">What doesn't kill you, puts you one step closer to death.
 </t>
   </si>
   <si>
@@ -6196,7 +6196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I dunno how I would’ve gotten out of that trash heap without you.
+    <t xml:space="preserve">[name="W"]  I dunno how I would've gotten out of that trash heap without you.
 </t>
   </si>
   <si>
@@ -6208,11 +6208,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Forget it, it’s no big deal. I just wanted to let you know...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  ——I’m back.
+    <t xml:space="preserve">[name="W"]  Forget it, it's no big deal. I just wanted to let you know...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  ——I'm back.
 </t>
   </si>
   <si>
@@ -7416,7 +7416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  모두가 무사히 로도스로 돌아가지 않으면, 의미가 없으니까요.
+    <t xml:space="preserve">[name="아미야"]  모두가 무사히 로도스 아일랜드로 돌아가지 않으면, 의미가 없으니까요.
 </t>
   </si>
   <si>
